--- a/biology/Zoologie/Gnathonemus/Gnathonemus.xlsx
+++ b/biology/Zoologie/Gnathonemus/Gnathonemus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnathonemus est un genre de poissons de la famille des Mormyridés. Ce genre représente les espèces appelées poissons éléphants. Toutes les espèces que regroupe ce genre se rencontre uniquement en Afrique.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (28 mai 2015)[1][2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (28 mai 2015):
 Gnathonemus barbatus Poll, 1967
 Gnathonemus echidnorhynchus Pellegrin, 1924
 Gnathonemus longibarbis Hilgendorf, 1888
